--- a/excel formula Maths.xlsx
+++ b/excel formula Maths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45CEDD44-2CF8-44D0-A8C1-1375E49F5ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD306A1-E4B9-45AF-AADA-2A9CF7D82CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E49F89C4-23BD-4656-8BB9-FD9D0C49DBEF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
   <si>
     <t>Order ID</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>if the greater than 500 then its yes</t>
+  </si>
+  <si>
+    <t>Left Function</t>
+  </si>
+  <si>
+    <t>index function</t>
+  </si>
+  <si>
+    <t>match function</t>
   </si>
 </sst>
 </file>
@@ -302,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -312,6 +321,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6EDEB36-058A-41CA-A41C-A68A37E98020}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1321,13 +1333,159 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="str">
         <f>IF(D37&gt;500,"yes","no")</f>
         <v>yes</v>
       </c>
       <c r="B65" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>43</v>
+      </c>
+      <c r="B71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <f>LEFT(B68)</f>
+        <v>F</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <f t="shared" ref="A80:A85" si="1">LEFT(B69)</f>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>G</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>E</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>W</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f>INDEX(A67:C73,4,2)</f>
+        <v>Grass</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f>INDEX(A67:C73,3,2)</f>
+        <v>Water</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
